--- a/master.xlsx
+++ b/master.xlsx
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
     <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abc</t>
   </si>
   <si>
     <t xml:space="preserve">a</t>
@@ -274,20 +277,20 @@
   <dimension ref="A1:FV20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P2" activeCellId="0" sqref="P2"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="11" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="2.53441295546559"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="4.52226720647773"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="2.57085020242915"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="4.39271255060729"/>
     <col collapsed="false" hidden="true" max="14" min="14" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.62753036437247"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.8582995951417"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.9838056680162"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.8461538461538"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.49797570850202"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -300,19 +303,21 @@
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="P1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V1" s="2"/>
       <c r="AI1" s="4"/>
@@ -413,7 +418,7 @@
       <c r="FU1" s="3"/>
       <c r="FV1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>4</v>
       </c>
@@ -425,7 +430,9 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
@@ -590,7 +597,7 @@
       <c r="FU2" s="8"/>
       <c r="FV2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>5</v>
       </c>
@@ -602,7 +609,9 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="2"/>
@@ -764,7 +773,7 @@
       <c r="FU3" s="8"/>
       <c r="FV3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>6</v>
       </c>
@@ -776,7 +785,9 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="2"/>
@@ -938,7 +949,7 @@
       <c r="FU4" s="8"/>
       <c r="FV4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>15</v>
       </c>
@@ -950,7 +961,9 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="2"/>
@@ -1118,7 +1131,7 @@
       <c r="FU5" s="8"/>
       <c r="FV5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>16</v>
       </c>
@@ -1130,7 +1143,9 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="2"/>
@@ -1298,7 +1313,7 @@
       <c r="FU6" s="8"/>
       <c r="FV6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>17</v>
       </c>
@@ -1310,7 +1325,9 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="2"/>
@@ -1478,7 +1495,7 @@
       <c r="FU7" s="8"/>
       <c r="FV7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>18</v>
       </c>
@@ -1490,7 +1507,9 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" t="n">
+        <v>6</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="2"/>
@@ -1652,7 +1671,7 @@
       <c r="FU8" s="8"/>
       <c r="FV8" s="8"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>19</v>
       </c>
@@ -1664,7 +1683,9 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="2"/>
@@ -1838,7 +1859,7 @@
       <c r="FU9" s="8"/>
       <c r="FV9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>21</v>
       </c>
@@ -1850,7 +1871,9 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2" t="n">
+        <v>8</v>
+      </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="2"/>
@@ -2007,7 +2030,7 @@
       <c r="FU10" s="8"/>
       <c r="FV10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>25</v>
       </c>
@@ -2019,7 +2042,9 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2" t="n">
+        <v>9</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="2"/>
@@ -2182,7 +2207,7 @@
       <c r="FU11" s="8"/>
       <c r="FV11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>26</v>
       </c>
@@ -2194,7 +2219,9 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2" t="n">
+        <v>10</v>
+      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
@@ -2327,7 +2354,7 @@
       <c r="FU12" s="8"/>
       <c r="FV12" s="8"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>30</v>
       </c>
@@ -2339,7 +2366,9 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="n">
+        <v>11</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
@@ -2493,7 +2522,7 @@
       <c r="FU13" s="8"/>
       <c r="FV13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>31</v>
       </c>
@@ -2505,7 +2534,9 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2" t="n">
+        <v>12</v>
+      </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
@@ -2662,7 +2693,7 @@
       <c r="FU14" s="8"/>
       <c r="FV14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>32</v>
       </c>
@@ -2674,7 +2705,9 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="n">
+        <v>13</v>
+      </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
@@ -2828,7 +2861,7 @@
       <c r="FU15" s="8"/>
       <c r="FV15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>33</v>
       </c>
@@ -2840,7 +2873,9 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
+      <c r="H16" s="2" t="n">
+        <v>14</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
@@ -3000,7 +3035,7 @@
       <c r="FU16" s="8"/>
       <c r="FV16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>34</v>
       </c>
@@ -3012,7 +3047,9 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
+      <c r="H17" s="2" t="n">
+        <v>15</v>
+      </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
@@ -3172,7 +3209,7 @@
       <c r="FU17" s="8"/>
       <c r="FV17" s="8"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>36</v>
       </c>
@@ -3184,7 +3221,9 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="2" t="n">
+        <v>16</v>
+      </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
@@ -3347,7 +3386,7 @@
       <c r="FU18" s="8"/>
       <c r="FV18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>55</v>
       </c>
@@ -3356,7 +3395,9 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="2" t="n">
+        <v>17</v>
+      </c>
       <c r="K19" s="2"/>
       <c r="P19" s="3" t="n">
         <v>0.34</v>
@@ -3514,7 +3555,7 @@
       <c r="FU19" s="8"/>
       <c r="FV19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>56</v>
       </c>
@@ -3523,7 +3564,9 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2" t="n">
+        <v>18</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="P20" s="3" t="n">
         <v>0.6094515538</v>

--- a/master.xlsx
+++ b/master.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xyz</t>
   </si>
   <si>
     <t xml:space="preserve">a</t>
@@ -277,16 +280,16 @@
   <dimension ref="A1:FV20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="11" min="1" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="2.57085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="4.39271255060729"/>
-    <col collapsed="false" hidden="true" max="14" min="14" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4.49797570850202"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="2.64372469635628"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="2.19838056680162"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="2.31578947368421"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.1740890688259"/>
@@ -306,18 +309,21 @@
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="P1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V1" s="2"/>
       <c r="AI1" s="4"/>
@@ -433,7 +439,9 @@
       <c r="H2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="2"/>
       <c r="L2" s="1"/>
@@ -612,7 +620,9 @@
       <c r="H3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="n">
+        <v>3</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="2"/>
       <c r="L3" s="1"/>
@@ -788,7 +798,9 @@
       <c r="H4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1" t="n">
+        <v>4</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="2"/>
       <c r="L4" s="1"/>
@@ -964,7 +976,9 @@
       <c r="H5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="n">
+        <v>5</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="2"/>
       <c r="L5" s="1"/>
@@ -1146,7 +1160,9 @@
       <c r="H6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="n">
+        <v>6</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="2"/>
       <c r="L6" s="1"/>
@@ -1328,7 +1344,9 @@
       <c r="H7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="n">
+        <v>7</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="2"/>
       <c r="L7" s="1"/>
@@ -1510,7 +1528,9 @@
       <c r="H8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="n">
+        <v>8</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="2"/>
       <c r="L8" s="1"/>
@@ -1686,7 +1706,9 @@
       <c r="H9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="n">
+        <v>9</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="2"/>
       <c r="L9" s="1"/>
@@ -1874,7 +1896,9 @@
       <c r="H10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="I10" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="2"/>
       <c r="L10" s="1"/>
@@ -2045,7 +2069,9 @@
       <c r="H11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="n">
+        <v>11</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="2"/>
       <c r="L11" s="1"/>
@@ -2222,7 +2248,9 @@
       <c r="H12" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="n">
+        <v>12</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="2"/>
       <c r="L12" s="1"/>
@@ -2369,7 +2397,9 @@
       <c r="H13" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="n">
+        <v>13</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="2"/>
       <c r="L13" s="1"/>
@@ -2537,7 +2567,9 @@
       <c r="H14" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1" t="n">
+        <v>14</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="2"/>
       <c r="L14" s="1"/>
@@ -2708,7 +2740,9 @@
       <c r="H15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1" t="n">
+        <v>15</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
       <c r="L15" s="1"/>
@@ -2876,7 +2910,9 @@
       <c r="H16" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="n">
+        <v>16</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="2"/>
       <c r="L16" s="1"/>
@@ -3050,7 +3086,9 @@
       <c r="H17" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1" t="n">
+        <v>17</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
       <c r="L17" s="1"/>
@@ -3224,7 +3262,9 @@
       <c r="H18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="n">
+        <v>18</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
       <c r="L18" s="1"/>
@@ -3397,6 +3437,9 @@
       <c r="D19" s="7"/>
       <c r="H19" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="K19" s="2"/>
       <c r="P19" s="3" t="n">
@@ -3567,6 +3610,9 @@
       <c r="H20" s="2" t="n">
         <v>18</v>
       </c>
+      <c r="I20" s="1" t="n">
+        <v>20</v>
+      </c>
       <c r="K20" s="2"/>
       <c r="P20" s="3" t="n">
         <v>0.6094515538</v>
